--- a/biology/Botanique/Folle_avoine/Folle_avoine.xlsx
+++ b/biology/Botanique/Folle_avoine/Folle_avoine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Avena fatua
 La folle-avoine (Avena fatua) est une espèce de plantes monocotylédones de la famille des Poaceae (Gramineae), originaire d'Eurasie.
@@ -514,16 +526,123 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avena fatua fut décrite par Linné  et publiée dans son Species plantarum 1: 80. en 1753[1].
-Étymologie
-Le nom générique, « Avena », est un substantif féminin latin (ǎvēna, -ae), déjà utilisé notamment par Virgile dans les Géorgiques (1, 77 et 164) pour désigner ce genre de graminées.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avena fatua fut décrite par Linné  et publiée dans son Species plantarum 1: 80. en 1753.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Folle_avoine</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Folle_avoine</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Avena », est un substantif féminin latin (ǎvēna, -ae), déjà utilisé notamment par Virgile dans les Géorgiques (1, 77 et 164) pour désigner ce genre de graminées.
 L'épithète spécifique, « fatua » est un adjectif latin (fātǔus, -a, -um) qui signifie « insensé, extravagant, fou ».
-Noms vernaculaires
-En français, la folle avoine est également appelée avoine sauvage, averon, coquiole, havenon[2].
-Synonymes
-Selon Catalogue of Life                                   (26 juin 2016)[3]et selon INPN[4] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Folle_avoine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Folle_avoine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En français, la folle avoine est également appelée avoine sauvage, averon, coquiole, havenon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Folle_avoine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Folle_avoine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (26 juin 2016)et selon INPN :
 Anatherum avenaceum Hack.,
 Anelytrum avenaceum Hack., 1916,
 Avena ambigua Schoenb., pro syn.,
@@ -554,31 +673,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Folle_avoine</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Folle_avoine</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Avena fatua est une plante herbacée annuelle au port dressé pouvant atteindre de 30 à 150 cm de haut
 Les tiges, dressées ou géniculées ascendantes, portent de trois à six nœuds..
@@ -591,49 +712,51 @@
 Les épillets fertiles sont portés par un long pédicelle filiforme.
 Ils comptent deux à trois fleurons fertiles.
 Les glumes persistantes, sont semblables entre elles, même longueur de 18 à 28 mm, même forme lancéolée à apex acuminé, et dépassent le sommet des fleurons (elles sont plus longues que les glumelles).
-La glumelle inférieure des fleurons porte une arête dorsale coudée, torsadée à la base, de plus de 25 mm de long[2].
+La glumelle inférieure des fleurons porte une arête dorsale coudée, torsadée à la base, de plus de 25 mm de long.
 Les fleurons comptent trois étamines, aux anthères de 3 mm de long. L'ovaire est pubescent.
-Chaque fleuron présente à la base une cicatrice d'abscission ovale, ce qui permet la séparation à maturité d'un propagule (semence) constituée du caryopse avec ses glumelles, les glumes restant sur la plante[5].
-Le fruit est un caryopse velu, de 6 à 8 mm de long, aux glumelles adhérentes[6].
+Chaque fleuron présente à la base une cicatrice d'abscission ovale, ce qui permet la séparation à maturité d'un propagule (semence) constituée du caryopse avec ses glumelles, les glumes restant sur la plante.
+Le fruit est un caryopse velu, de 6 à 8 mm de long, aux glumelles adhérentes.
 Risque de confusion
-Avena fatua se confond facilement avec Avena sterilis (Avena sterilis ssp. sterilis, Avena sterilis ssp. ludoviciana), avec laquelle elle pousse souvent en mélange dans les champs[7],[2]. Avena fatua est présente au nord de la France, Avena sterilis colonise le sud mais aussi la façade Atlantique, jusqu'au sud de la Bretagne[8].
+Avena fatua se confond facilement avec Avena sterilis (Avena sterilis ssp. sterilis, Avena sterilis ssp. ludoviciana), avec laquelle elle pousse souvent en mélange dans les champs,. Avena fatua est présente au nord de la France, Avena sterilis colonise le sud mais aussi la façade Atlantique, jusqu'au sud de la Bretagne.
 Génétique
 Avena fatua est une espèce allohexaploïde dont le nombre de chromosomes est égal à 2n = 6x =42, avec un nombre chromosomique de base égal à 7.
-Le génome de type AACCDD est similaire à celui d' Avena sterilis et d'Avena sativa, l'avoine cultivée[9].
-La folle avoine est considérée comme une source potentielle de gènes en vue d'améliorer l'avoine cultivée. Elle possède notamment des gènes de tolérance au virus de la jaunisse nanisante de l'orge (BYDV), de résistance au léma à pieds noirs (Oulema melanopus) et de résistance à la rouille noire de l'avoine (Puccinia graminis f. sp. avenae). Elle présente aussi un potentiel d'amélioration de la teneur en protéines du gruau d'avoine et de leurs composition en acides aminés[10].
+Le génome de type AACCDD est similaire à celui d' Avena sterilis et d'Avena sativa, l'avoine cultivée.
+La folle avoine est considérée comme une source potentielle de gènes en vue d'améliorer l'avoine cultivée. Elle possède notamment des gènes de tolérance au virus de la jaunisse nanisante de l'orge (BYDV), de résistance au léma à pieds noirs (Oulema melanopus) et de résistance à la rouille noire de l'avoine (Puccinia graminis f. sp. avenae). Elle présente aussi un potentiel d'amélioration de la teneur en protéines du gruau d'avoine et de leurs composition en acides aminés.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Folle_avoine</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Folle_avoine</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de la folle avoine est quasi-cosmopolite, s'étendant dans tous les continents : en Europe, en Afrique et en Macaronésie, en Asie tempérée (de la Sibérie et de l'Extrême-Orient russe à l'Asie occidentale et la péninsule arabique, y compris le Caucase et la Chine), en Asie tropicale (Inde et Malaisie), en Australasie (Australie et Nouvelle-Zélande), dans la zone Pacifique, en Amérique du Nord, en Amérique du Sud, ainsi qu'en Amérique centrale et dans les Caraïbes, et dans les îles sub-antarctiques[6].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de la folle avoine est quasi-cosmopolite, s'étendant dans tous les continents : en Europe, en Afrique et en Macaronésie, en Asie tempérée (de la Sibérie et de l'Extrême-Orient russe à l'Asie occidentale et la péninsule arabique, y compris le Caucase et la Chine), en Asie tropicale (Inde et Malaisie), en Australasie (Australie et Nouvelle-Zélande), dans la zone Pacifique, en Amérique du Nord, en Amérique du Sud, ainsi qu'en Amérique centrale et dans les Caraïbes, et dans les îles sub-antarctiques.
 Avena fatua est omniprésente dans les cultures annuelles dans les régions de climat tempéré, y compris dans les régions semi-arides, et dans une large gamme de sols. 	
-Une étude réalisée dans les années 1970 à 2000 a montré que le climat avait peu d'influence sur la répartition d'Avena fatua dans les Prairies canadiennes[11].
+Une étude réalisée dans les années 1970 à 2000 a montré que le climat avait peu d'influence sur la répartition d'Avena fatua dans les Prairies canadiennes.
 </t>
         </is>
       </c>
